--- a/kep8groupscatterinput.xlsx
+++ b/kep8groupscatterinput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiden\Documents\Python\NPRE247\ComputerProject2Kepford\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F226C9-B8C7-4C5E-A1B7-8E2405A12222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBEA66-E12B-4E45-B254-7936459F9CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="1908" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>scatter1</t>
+  </si>
+  <si>
+    <t>scatter2</t>
+  </si>
+  <si>
+    <t>scatter3</t>
+  </si>
+  <si>
+    <t>scatter4</t>
+  </si>
+  <si>
+    <t>scatter5</t>
+  </si>
+  <si>
+    <t>scatter6</t>
+  </si>
+  <si>
+    <t>scatter7</t>
+  </si>
+  <si>
+    <t>scatter8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,35 +369,35 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
